--- a/챕터 14.xlsx
+++ b/챕터 14.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeongseok\Desktop\개발일기\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitcamp\Desktop\공부\개인 공부\자바\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C45A2BB-CA86-4944-8894-24A48B281B49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D887AB4-773B-4F1C-843B-966E00C37A89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="람다식" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>람다식 규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -758,18 +758,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Stream타입의 참조변수에 넣어서 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. 객체 배열은 Stream.of( ), Arrays.stream( ) 메서드 사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. 기본형 배열은 IntStream.of( ), Arrays.stream( ) 메서드 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <strike/>
@@ -1065,18 +1057,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>중간연산자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>map 객체 자체의 메서드를 사용하고 싶을 때</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. Collection인터페이스는 stream( ) 메서드 사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1322,6 +1306,310 @@
       </rPr>
       <t xml:space="preserve">      *실행문이 두줄 이상인 경우  { }생략불가</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stream타입의 참조변수에 넣어서 사용   / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*기본형은 IntStream처럼 기본형 stream참조변수로</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. 기본형 배열은 IntStream.of( ), Arrays.stream( ) 메서드 사용 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*기본형은 기본형 권장</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 난수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ints(5,10) -&gt; 5~9범위의 난수만 나옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ints(8,5,11) -&gt; 난수 개수 8개로 설정 + 5~10범위의 난수만 나옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ints(5) -&gt; 난수 개수를 5개로 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본형 stream의 활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">인수범위에서 무한 난수 출력 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 특정 범위의 정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IntStream intStream = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>new Random( ) .ints( );</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntStream intStream = IntStream.range (1, 5) ;      //1,2,3,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stream&lt;T&gt; generate( Supplier&lt;T&gt; s )//. 이전 요소에 독립적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stream&lt;T&gt; iterate( T seed, UnaryOperator&lt;T&gt; f )// 이전 요소에 종속적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stream&lt;T&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iterate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(초기값, 람다식 )// 이전 요소에 종속적</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stream&lt;Integer&gt; evenStream = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stream.iterate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0, n-&gt;n+2); // 0 , 2 , 4 , 6</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Stream&lt;T&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> generate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(람다식)//. 이전 요소에 독립적</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stream&lt;Double&gt; randomstream = Stream.generate(Math::random)  // 난수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stream&lt;Integer&gt; oneStream = Stream.generate(()-&gt;1); // 1, 1, ,1 …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.람다식  (무한스트림)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip(n)  : 앞에서부터 n개 건너뛰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>IntStream intStream = IntStream.rangeC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>losed (1, 5); // 1,2,3,4,5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit(n) : 크기를 n개로 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter(조건식) : 조건식이 true인 값만 추출/ &amp;&amp;,||사용 가능/ filter()여러 개 사용가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intStream.filter(i-&gt;i%2!=0 &amp;&amp; i%3!=0).forEach (System.out::print);
+intStream.filter(i-&gt;i%2!=0).filter (i-&gt;i%3!=0).forEach (System.out::print);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinct( ) :  중복제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">comparing( ) :  정렬 기준 제공 / sorted( Comparator.comparing( Student :: getBan ) ) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thenComparing( ) : 추가 정렬 기준 제공 / .thenComparing(Student :: getTotalScore)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map( ) : 객체 자체의 메서드를 사용하고 싶을 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peek( ) : 스트림요소를 소비하지 않고 엿보기 (중간 작업 확인 용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flatMap( ) : 스트림의 스트림을 -&gt; 스트림으로 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>" +"  은 한 개의 이상의 공백를 나타내는 정규식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sorted( ) :  정렬하기  / 기준 없으면 기본 정렬 / .reversed( ) : 역순전환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간연산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종연산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forEach ( ) : 모든요소에 지정된 작업실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forEachOrderd ( ) : 모든요소에 지정된 작업실행 (병렬스트림에서도 순서 보장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allMatch( ) : 모든요소가 조건을 만족 -&gt;true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anyMatch( ) : 한 요소라도 조건을 만족 -&gt;true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noneMatch( ) : 모든요소가 조건을 만족하지 않음 -&gt;true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findFirst( ) : 조건과 일치하는 첫 번째 요소를 반환 (순차 스트림에 사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findAny( ) : 조건과 일치하는 랜덤한 요소를 반환 (병렬 스트림에 사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce( ) : 스트림의 요소를 하나씩 줄여가며 누적 연산 수행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect( ): 공부해야할듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>otional&lt;t&gt; :공부해야할듯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1329,7 +1617,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1434,6 +1722,22 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1443,7 +1747,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1529,11 +1833,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1557,6 +1906,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2123,10 +2504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:B114"/>
+  <dimension ref="B1:B117"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2148,17 +2529,17 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
@@ -2168,7 +2549,7 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
@@ -2178,7 +2559,7 @@
     </row>
     <row r="10" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2516,6 +2897,16 @@
     <row r="114" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B114" s="19" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="26" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2528,14 +2919,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FA78E4-9BC5-4AFA-96F2-E8483CF40D9A}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="3" width="80.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2547,7 +2939,7 @@
     </row>
     <row r="3" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
@@ -2557,7 +2949,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
@@ -2567,7 +2959,7 @@
     </row>
     <row r="7" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
@@ -2577,12 +2969,12 @@
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2590,46 +2982,250 @@
         <v>34</v>
       </c>
     </row>
+    <row r="13" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="21"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B43" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="26"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="26" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/챕터 14.xlsx
+++ b/챕터 14.xlsx
@@ -5,17 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitcamp\Desktop\공부\개인 공부\자바\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeongseok\Desktop\새 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D887AB4-773B-4F1C-843B-966E00C37A89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC9AD3A-F2C2-4850-B9CE-C78DDEEA5242}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="람다식" sheetId="1" r:id="rId1"/>
     <sheet name="스트림" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">스트림!$B$1:$B$111</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
   <si>
     <t>람다식 규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -750,18 +753,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. 병렬스트림으로 전환 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스트림 만들기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. 객체 배열은 Stream.of( ), Arrays.stream( ) 메서드 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <strike/>
@@ -1061,10 +1056,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. Collection인터페이스는 stream( ) 메서드 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>다양한 데이터 소스(</t>
     </r>
@@ -1326,23 +1317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">3. 기본형 배열은 IntStream.of( ), Arrays.stream( ) 메서드 사용 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*기본형은 기본형 권장</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1. 난수 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1364,10 +1338,6 @@
   </si>
   <si>
     <t xml:space="preserve">인수범위에서 무한 난수 출력 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 특정 범위의 정수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1386,10 +1356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IntStream intStream = IntStream.range (1, 5) ;      //1,2,3,4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stream&lt;T&gt; generate( Supplier&lt;T&gt; s )//. 이전 요소에 독립적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1488,39 +1454,6 @@
   </si>
   <si>
     <t>Stream&lt;Integer&gt; oneStream = Stream.generate(()-&gt;1); // 1, 1, ,1 …</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.람다식  (무한스트림)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skip(n)  : 앞에서부터 n개 건너뛰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>IntStream intStream = IntStream.rangeC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>losed (1, 5); // 1,2,3,4,5</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit(n) : 크기를 n개로 제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>filter(조건식) : 조건식이 true인 값만 추출/ &amp;&amp;,||사용 가능/ filter()여러 개 사용가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1529,30 +1462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>distinct( ) :  중복제거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">comparing( ) :  정렬 기준 제공 / sorted( Comparator.comparing( Student :: getBan ) ) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thenComparing( ) : 추가 정렬 기준 제공 / .thenComparing(Student :: getTotalScore)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map( ) : 객체 자체의 메서드를 사용하고 싶을 때</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>peek( ) : 스트림요소를 소비하지 않고 엿보기 (중간 작업 확인 용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flatMap( ) : 스트림의 스트림을 -&gt; 스트림으로 변환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정규식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1561,10 +1470,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sorted( ) :  정렬하기  / 기준 없으면 기본 정렬 / .reversed( ) : 역순전환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중간연산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1573,43 +1478,1047 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>forEach ( ) : 모든요소에 지정된 작업실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forEachOrderd ( ) : 모든요소에 지정된 작업실행 (병렬스트림에서도 순서 보장)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allMatch( ) : 모든요소가 조건을 만족 -&gt;true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anyMatch( ) : 한 요소라도 조건을 만족 -&gt;true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noneMatch( ) : 모든요소가 조건을 만족하지 않음 -&gt;true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>findFirst( ) : 조건과 일치하는 첫 번째 요소를 반환 (순차 스트림에 사용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>findAny( ) : 조건과 일치하는 랜덤한 요소를 반환 (병렬 스트림에 사용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce( ) : 스트림의 요소를 하나씩 줄여가며 누적 연산 수행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collect( ): 공부해야할듯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>otional&lt;t&gt; :공부해야할듯</t>
+    <t>3. 병렬스트림으로 전환 가능 -&gt; .parallel( ) : 전환  / .parallelStream( ) : 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트림 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Stream&lt;String&gt; ss1 = Stream.of("Cake", "Milk");
+Stream&lt;String&gt; ss2 = Stream.of("Lemon", "Jelly");
+Stream</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.concat(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ss1, ss2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  // 스트림을 하나로 묶은 후 출력
+.forEach(s -&gt; System.out.print(s+" "));
+}   =&gt;Cake MilK Lemon Jelly</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.concat( ) : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">두 스트림을 연결할때 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. 특정 범위의 정수      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*당연 실수형에서는 불가</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>IntStream intStream = IntStream</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1, 5) ;      //1,2,3,4   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*권장</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LongStream intStream = LongStream</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.rangeClosed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1, 5); // 1,2,3,4,5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*람다식  (무한스트림 만들기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. 그 외에는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Stream.of(All), IntStream.of(All) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">static메서드 사용 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*기본형은 기본형 권장</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. 배열은  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arrays.stream(arr)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> static메서드 사용 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Collection인터페이스는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.stream( )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 메서드 사용 -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*매핑시 람다식에서 형변환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>❓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(n) : 크기를 n개로 제한</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>skip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(n)  : 앞에서부터 n개 건너뛰기</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(조건식) : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>조건식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">이 true인 값만 추출    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* &amp;&amp;,||사용 가능/ filter()여러 개 사용가능</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>distinct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( ) :  중복제거</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapping(맵핑)이란? : 객체의 요소 전처리 (어떤타입으로?, 어떻게, 무엇을?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.flatMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(t-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stream.of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(t.getBlue(),t.getRed(),t.getGreen()));</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(t-&gt;t.Red( )) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(t-&gt;toString)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sorted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(comparator ) :  정렬하기  / 기준 없으면 기본 정렬 / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*기본형Stream과String은 기본정렬 있음</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sorted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>((s1,s2) -&gt; s1.length( ) -s2.length( ));    .reversed( ) : 역순전환</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thenComparing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( ) : 추가 정렬 기준 제공 / .thenComparing(Student :: getTotal.reversed( ))</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comparing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">( ) :  정렬 기준 제공 / sorted( Comparator.comparing( Student :: getBan)) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(람) : 1:1 하나의 요소만 가져올 수 있다. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(박싱,언박싱 O)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flatMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(람) : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1:多 여러 개의 요소를 가져 올 수 있다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(여러 요소는 다시 스트림으로 합친다)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mapToInt(람) : 1:1 하나의 요소만 가져올 수 있다. (박싱,언박싱 X) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*기본형을 권장과 동이유</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>peek</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(람) : forEach의 중간연산버전 (중간 작업 확인 용/ 최종연산을 다른 걸 쓰고 싶을 때)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forEach (람) : 모든요소에 지정된 작업실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forEachOrderd (람) : 모든요소에 지정된 작업실행 (병렬스트림에서도 순서 보장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noneMatch(조건) : 모든요소가 조건을 만족하지 않음 -&gt;true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anyMatch(조건 ) : 한 요소라도 조건을 만족 -&gt;true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allMatch(조건) : 모든요소가 조건을 만족 -&gt;true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findFirst(조건) : 조건과 일치하는 첫 번째 요소를 반환 (순차 스트림에 사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findAny(조건) : 조건과 일치하는 랜덤한 요소를 반환 (병렬 스트림에 사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;String&gt; 1s = ss.parallel()
+                .filter(s -&gt; s.length() &lt; 5)
+                .collect(( ) -&gt; new ArrayList&lt;&gt;(),
+                        (c, s) -&gt; c.add(s),
+                        (st1, st2) -&gt; st1.addAll(st2));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장소를 생성하고 원하는 값들만 모아 저장하는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">첫번째 인자 : 저장소 생성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리덕션 참고자료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">리듀싱 : 어떤 조건에 의해 다수의 데이터가 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하나의 데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">가 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>되는 것</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>but 데이터로 인식 리듀싱에 포함 됨 그래서 리듀싱에 방해요소로 되지 않게 설정해야 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째 인자 : 각 저장소의 조건에 맞는 리듀싱 / c는 저장소, s는 스트림데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세번째 인자 : 각 저장소를 하나의 저장소로 조건에 맞춰 리듀싱(병렬조건에만 발동 but 항상 유효한 식입력) 저장소의 메서드를 따라가기때문에 저장소에 맞는 메서드로 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번재 인자: BinaryOperator&lt;T&gt; accumulator : 리덕션을 수행할 조건식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫번째 인자: identify 스트림 빈 경우 반환 하는 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Collector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>는 수집(collect)에 필요한 메서드를 정의해 놓은 인터페이스</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Collectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">는 Collector를 다루는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>util클래스</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partitioningBy( ) : 스트림을 2분할 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reduce( )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 리듀싱에 사용될 조건을 설정하고 리듀싱을 실행하는 메서드</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>collect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Collector collector ) : 스트림을 나눠서 그룹화하여 하는 reduce( )  *방법1: 주로 사용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">collect( 3인자) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*방법2: 잘안씀</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupingBy( ): 스트림을 n분할 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열 결합-joining ()</t>
+  </si>
+  <si>
+    <t>리듀싱 -reducing ()</t>
+  </si>
+  <si>
+    <t>그룹화와 분할 - groupingBy (), partitioningBy (), collectingAndThen ()</t>
+  </si>
+  <si>
+    <t>통계 :counting (), summingInt(), averagingInt(0, maxBy (), minBy (), summarizingInt(), ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변환 : mapping (), toList(), toSet(), toMap(), toCollection (), …</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1617,7 +2526,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1737,6 +2646,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1882,7 +2797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1914,21 +2829,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1938,6 +2845,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2241,6 +3184,255 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB14BBB-307D-4A51-8039-B931EE59B7F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="371475" y="19802475"/>
+          <a:ext cx="12477750" cy="5514975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4914900</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D7AD79-4037-4B5E-A36F-98B5F51D6C08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="371475" y="25460325"/>
+          <a:ext cx="11068050" cy="5114925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26E764E-9E74-4DC1-96E2-A74FD6DB25C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="371475" y="30699075"/>
+          <a:ext cx="7058025" cy="1800225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FF0334-44BF-4D21-A5A5-A4ABB67B1ADF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="400050" y="23602950"/>
+          <a:ext cx="8220075" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2506,7 +3698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -2529,17 +3721,17 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
@@ -2549,7 +3741,7 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
@@ -2559,7 +3751,7 @@
     </row>
     <row r="10" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2901,12 +4093,12 @@
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="26" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="26" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2919,10 +4111,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FA78E4-9BC5-4AFA-96F2-E8483CF40D9A}">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2939,7 +4131,7 @@
     </row>
     <row r="3" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
@@ -2949,7 +4141,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
@@ -2959,7 +4151,7 @@
     </row>
     <row r="7" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
@@ -2969,263 +4161,464 @@
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>35</v>
+    <row r="14" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="19" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>49</v>
+      <c r="B15" s="18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="19" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="22" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="22" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
-        <v>63</v>
+      <c r="B23" s="25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="20" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="20" t="s">
-        <v>51</v>
+      <c r="B29" s="23" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="23" t="s">
-        <v>58</v>
+      <c r="B30" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="22" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="24" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="22" t="s">
-        <v>59</v>
+      <c r="B35" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="24" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="21"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="21"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="35" t="s">
+    <row r="40" spans="2:2" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="26"/>
+    </row>
+    <row r="42" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="21"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="40"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" s="21" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="40"/>
+    </row>
+    <row r="52" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="43" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B43" s="29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="26"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="31" t="s">
+    <row r="57" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="40"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="39" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="29" t="s">
+    <row r="60" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="43" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="31" t="s">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="43" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>42</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="26" t="s">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="40"/>
+    </row>
+    <row r="64" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="40"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="28" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="26" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="27" t="s">
         <v>93</v>
       </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="26"/>
+    </row>
+    <row r="74" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>40</v>
+      </c>
+      <c r="B93" s="45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="47"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="47"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="47"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="47"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="47"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="47"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="47"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="47"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="63" min="1" max="1" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/챕터 14.xlsx
+++ b/챕터 14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeongseok\Desktop\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeongseok\Desktop\--main\--main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC9AD3A-F2C2-4850-B9CE-C78DDEEA5242}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12F3467-CE76-45F5-A21E-FBA550D3199B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="람다식" sheetId="1" r:id="rId1"/>
@@ -310,75 +310,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>익명객체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">란? 이름이 없는 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>일회용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 클래스. 클래스의 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정의와 생성을 동시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>하는 것</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>함수형 인터페이스</t>
     </r>
     <r>
@@ -882,88 +813,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>};</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a, </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  a&gt;b ? a : b;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2519,6 +2368,157 @@
   </si>
   <si>
     <t>변환 : mapping (), toList(), toSet(), toMap(), toCollection (), …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  a&gt;b ? a : b;  =&gt;  (a , b) -&gt;a&gt;b ? a : b;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>익명객체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">란? 이름이 없는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>일회용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 클래스로 클래스의 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정의와 생성을 동시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하는 것</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3698,8 +3698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B117"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3721,17 +3721,17 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
@@ -3741,7 +3741,7 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
@@ -3751,18 +3751,18 @@
     </row>
     <row r="10" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3770,7 +3770,7 @@
     </row>
     <row r="15" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
@@ -3780,7 +3780,7 @@
     </row>
     <row r="17" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="20" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
@@ -3801,18 +3801,18 @@
     </row>
     <row r="22" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
@@ -3866,23 +3866,23 @@
     <row r="43" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
@@ -3918,17 +3918,17 @@
     <row r="60" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
@@ -3955,7 +3955,7 @@
     <row r="71" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
@@ -3990,13 +3990,13 @@
     </row>
     <row r="83" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
@@ -4068,37 +4068,37 @@
     <row r="109" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B114" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4113,8 +4113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FA78E4-9BC5-4AFA-96F2-E8483CF40D9A}">
   <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4126,169 +4126,169 @@
     <row r="1" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="2:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4296,17 +4296,17 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
@@ -4317,27 +4317,27 @@
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="2:2" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4345,12 +4345,12 @@
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="2:2" s="21" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4358,32 +4358,32 @@
     </row>
     <row r="52" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4391,22 +4391,22 @@
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
@@ -4417,45 +4417,45 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B65" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B66" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B67" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B68" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B69" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B70" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B71" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:2" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4463,82 +4463,82 @@
     </row>
     <row r="74" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B74" s="48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B75" s="46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B76" s="46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B77" s="46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B78" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B79" s="46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B81" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B82" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B83" s="46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B85" s="46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B86" s="46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B87" s="46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B88" s="46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B89" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -4546,7 +4546,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B91" s="47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4554,35 +4554,35 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B93" s="45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B94" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B95" s="29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B96" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="2:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B97" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="2:2" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B98" s="44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.3">

--- a/챕터 14.xlsx
+++ b/챕터 14.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeongseok\Desktop\--main\--main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeongseok\Downloads\--main\--main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12F3467-CE76-45F5-A21E-FBA550D3199B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B02A32A-C1CC-4152-B2CF-B785696AF04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="람다식" sheetId="1" r:id="rId1"/>
     <sheet name="스트림" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">스트림!$B$1:$B$111</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">람다식!$B$2:$B$134</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">스트림!$B$1:$B$115</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2797,7 +2798,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2881,6 +2882,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2903,15 +2905,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7068536</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>210018</xdr:rowOff>
+      <xdr:colOff>7129496</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>32218</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2934,8 +2936,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="5562600"/>
-          <a:ext cx="7068536" cy="3353268"/>
+          <a:off x="317500" y="8890000"/>
+          <a:ext cx="7081871" cy="3318343"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2948,14 +2950,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7220955</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>209846</xdr:rowOff>
+      <xdr:colOff>7234290</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>296</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2992,14 +2994,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>9153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6992879</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>238825</xdr:rowOff>
+      <xdr:colOff>7006214</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>233110</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3036,14 +3038,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>102057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6905625</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>69393</xdr:rowOff>
+      <xdr:colOff>6899910</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>73203</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3097,13 +3099,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6516003</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>76621</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3141,14 +3143,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>35823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>20118</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>145353</xdr:rowOff>
+      <xdr:colOff>33453</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>149163</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3181,6 +3183,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5106093</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>162362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56FE296D-AADC-4DA6-A4B5-93F4ED8AB33C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="5105400"/>
+          <a:ext cx="4963218" cy="3134162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3190,14 +3236,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3251,14 +3297,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4914900</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3312,14 +3358,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>910590</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3373,14 +3419,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2095500</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3696,10 +3742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:B117"/>
+  <dimension ref="B1:B134"/>
   <sheetViews>
-    <sheetView topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A58" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3804,86 +3850,90 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="49"/>
+    </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="49"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="49"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="49"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="49"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="49"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="49"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="49"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="49"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="49"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="49"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="49"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="49"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="49"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="49"/>
+    </row>
+    <row r="40" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="49"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="19"/>
-    </row>
-    <row r="43" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="2"/>
+    </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="2"/>
+    </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="18" t="s">
-        <v>14</v>
-      </c>
+      <c r="B49" s="2"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
@@ -3909,36 +3959,30 @@
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="19"/>
+    <row r="58" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="19"/>
     </row>
     <row r="60" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="2"/>
-    </row>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="2"/>
+      <c r="B66" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
@@ -3949,14 +3993,14 @@
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="2:2" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="19"/>
-    </row>
-    <row r="71" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="2"/>
+    </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="B72" s="2"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="2"/>
@@ -3967,20 +4011,24 @@
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="2"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="2"/>
-    </row>
+    <row r="76" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="19"/>
+    </row>
+    <row r="77" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="2"/>
+      <c r="B78" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="19" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="2"/>
+      <c r="B80" s="18" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="2"/>
@@ -3988,25 +4036,26 @@
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="2"/>
+    </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="2"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="2"/>
-    </row>
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="2:2" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="19"/>
+    </row>
+    <row r="88" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="2"/>
+      <c r="B89" s="18" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="2"/>
@@ -4038,17 +4087,16 @@
     <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B101" s="2"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B102" s="2"/>
-    </row>
+    <row r="100" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="103" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B103" s="2"/>
+      <c r="B103" s="18" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="2"/>
@@ -4062,42 +4110,93 @@
     <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="19"/>
-    </row>
-    <row r="109" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="2"/>
+    </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="19"/>
+    </row>
+    <row r="126" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B111" s="2" t="s">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B112" s="2" t="s">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" s="2" t="s">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="19" t="s">
+    <row r="131" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B131" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B116" s="26" t="s">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B117" s="26" t="s">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="26" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4105,16 +4204,21 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="40" min="1" max="1" man="1"/>
+    <brk id="77" min="1" max="1" man="1"/>
+    <brk id="101" min="1" max="1" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FA78E4-9BC5-4AFA-96F2-E8483CF40D9A}">
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4585,6 +4689,9 @@
         <v>97</v>
       </c>
     </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="47"/>
+    </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="47"/>
     </row>
@@ -4594,9 +4701,6 @@
     <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="47"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B103" s="47"/>
-    </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="47"/>
     </row>
@@ -4611,6 +4715,18 @@
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" s="47"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="47"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="47"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="47"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
